--- a/sequences/08_retrieval_2.xlsx
+++ b/sequences/08_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -2032,6 +2032,30 @@
       <c r="F6" t="s">
         <v>209</v>
       </c>
+      <c r="G6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" t="s">
+        <v>209</v>
+      </c>
+      <c r="L6" t="s">
+        <v>209</v>
+      </c>
+      <c r="M6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N6" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -2052,6 +2076,30 @@
       <c r="F7" t="s">
         <v>209</v>
       </c>
+      <c r="G7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M7" t="s">
+        <v>209</v>
+      </c>
+      <c r="N7" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -2116,6 +2164,30 @@
       <c r="F9" t="s">
         <v>209</v>
       </c>
+      <c r="G9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" t="s">
+        <v>209</v>
+      </c>
+      <c r="K9" t="s">
+        <v>209</v>
+      </c>
+      <c r="L9" t="s">
+        <v>209</v>
+      </c>
+      <c r="M9" t="s">
+        <v>209</v>
+      </c>
+      <c r="N9" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -2356,6 +2428,30 @@
       <c r="F15" t="s">
         <v>209</v>
       </c>
+      <c r="G15" t="s">
+        <v>209</v>
+      </c>
+      <c r="H15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" t="s">
+        <v>209</v>
+      </c>
+      <c r="J15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K15" t="s">
+        <v>209</v>
+      </c>
+      <c r="L15" t="s">
+        <v>209</v>
+      </c>
+      <c r="M15" t="s">
+        <v>209</v>
+      </c>
+      <c r="N15" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
@@ -2640,6 +2736,30 @@
       <c r="F22" t="s">
         <v>209</v>
       </c>
+      <c r="G22" t="s">
+        <v>209</v>
+      </c>
+      <c r="H22" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" t="s">
+        <v>209</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
@@ -2704,6 +2824,30 @@
       <c r="F24" t="s">
         <v>209</v>
       </c>
+      <c r="G24" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" t="s">
+        <v>209</v>
+      </c>
+      <c r="N24" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
@@ -2812,6 +2956,30 @@
       <c r="F27" t="s">
         <v>209</v>
       </c>
+      <c r="G27" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" t="s">
+        <v>209</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="s">
+        <v>209</v>
+      </c>
+      <c r="N27" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2876,6 +3044,30 @@
       <c r="F29" t="s">
         <v>209</v>
       </c>
+      <c r="G29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" t="s">
+        <v>209</v>
+      </c>
+      <c r="I29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" t="s">
+        <v>209</v>
+      </c>
+      <c r="K29" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" t="s">
+        <v>209</v>
+      </c>
+      <c r="M29" t="s">
+        <v>209</v>
+      </c>
+      <c r="N29" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
@@ -2940,6 +3132,30 @@
       <c r="F31" t="s">
         <v>209</v>
       </c>
+      <c r="G31" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" t="s">
+        <v>209</v>
+      </c>
+      <c r="I31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L31" t="s">
+        <v>209</v>
+      </c>
+      <c r="M31" t="s">
+        <v>209</v>
+      </c>
+      <c r="N31" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
@@ -3048,6 +3264,30 @@
       <c r="F34" t="s">
         <v>209</v>
       </c>
+      <c r="G34" t="s">
+        <v>209</v>
+      </c>
+      <c r="H34" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" t="s">
+        <v>209</v>
+      </c>
+      <c r="L34" t="s">
+        <v>209</v>
+      </c>
+      <c r="M34" t="s">
+        <v>209</v>
+      </c>
+      <c r="N34" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3068,6 +3308,30 @@
       <c r="F35" t="s">
         <v>209</v>
       </c>
+      <c r="G35" t="s">
+        <v>209</v>
+      </c>
+      <c r="H35" t="s">
+        <v>209</v>
+      </c>
+      <c r="I35" t="s">
+        <v>209</v>
+      </c>
+      <c r="J35" t="s">
+        <v>209</v>
+      </c>
+      <c r="K35" t="s">
+        <v>209</v>
+      </c>
+      <c r="L35" t="s">
+        <v>209</v>
+      </c>
+      <c r="M35" t="s">
+        <v>209</v>
+      </c>
+      <c r="N35" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
@@ -3088,6 +3352,30 @@
       <c r="F36" t="s">
         <v>209</v>
       </c>
+      <c r="G36" t="s">
+        <v>209</v>
+      </c>
+      <c r="H36" t="s">
+        <v>209</v>
+      </c>
+      <c r="I36" t="s">
+        <v>209</v>
+      </c>
+      <c r="J36" t="s">
+        <v>209</v>
+      </c>
+      <c r="K36" t="s">
+        <v>209</v>
+      </c>
+      <c r="L36" t="s">
+        <v>209</v>
+      </c>
+      <c r="M36" t="s">
+        <v>209</v>
+      </c>
+      <c r="N36" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
@@ -3108,6 +3396,30 @@
       <c r="F37" t="s">
         <v>209</v>
       </c>
+      <c r="G37" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" t="s">
+        <v>209</v>
+      </c>
+      <c r="J37" t="s">
+        <v>209</v>
+      </c>
+      <c r="K37" t="s">
+        <v>209</v>
+      </c>
+      <c r="L37" t="s">
+        <v>209</v>
+      </c>
+      <c r="M37" t="s">
+        <v>209</v>
+      </c>
+      <c r="N37" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
@@ -3172,6 +3484,30 @@
       <c r="F39" t="s">
         <v>209</v>
       </c>
+      <c r="G39" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" t="s">
+        <v>209</v>
+      </c>
+      <c r="J39" t="s">
+        <v>209</v>
+      </c>
+      <c r="K39" t="s">
+        <v>209</v>
+      </c>
+      <c r="L39" t="s">
+        <v>209</v>
+      </c>
+      <c r="M39" t="s">
+        <v>209</v>
+      </c>
+      <c r="N39" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
@@ -3236,6 +3572,30 @@
       <c r="F41" t="s">
         <v>209</v>
       </c>
+      <c r="G41" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" t="s">
+        <v>209</v>
+      </c>
+      <c r="I41" t="s">
+        <v>209</v>
+      </c>
+      <c r="J41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K41" t="s">
+        <v>209</v>
+      </c>
+      <c r="L41" t="s">
+        <v>209</v>
+      </c>
+      <c r="M41" t="s">
+        <v>209</v>
+      </c>
+      <c r="N41" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
@@ -3388,6 +3748,30 @@
       <c r="F45" t="s">
         <v>209</v>
       </c>
+      <c r="G45" t="s">
+        <v>209</v>
+      </c>
+      <c r="H45" t="s">
+        <v>209</v>
+      </c>
+      <c r="I45" t="s">
+        <v>209</v>
+      </c>
+      <c r="J45" t="s">
+        <v>209</v>
+      </c>
+      <c r="K45" t="s">
+        <v>209</v>
+      </c>
+      <c r="L45" t="s">
+        <v>209</v>
+      </c>
+      <c r="M45" t="s">
+        <v>209</v>
+      </c>
+      <c r="N45" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
@@ -3672,6 +4056,30 @@
       <c r="F52" t="s">
         <v>209</v>
       </c>
+      <c r="G52" t="s">
+        <v>209</v>
+      </c>
+      <c r="H52" t="s">
+        <v>209</v>
+      </c>
+      <c r="I52" t="s">
+        <v>209</v>
+      </c>
+      <c r="J52" t="s">
+        <v>209</v>
+      </c>
+      <c r="K52" t="s">
+        <v>209</v>
+      </c>
+      <c r="L52" t="s">
+        <v>209</v>
+      </c>
+      <c r="M52" t="s">
+        <v>209</v>
+      </c>
+      <c r="N52" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
@@ -3736,6 +4144,30 @@
       <c r="F54" t="s">
         <v>209</v>
       </c>
+      <c r="G54" t="s">
+        <v>209</v>
+      </c>
+      <c r="H54" t="s">
+        <v>209</v>
+      </c>
+      <c r="I54" t="s">
+        <v>209</v>
+      </c>
+      <c r="J54" t="s">
+        <v>209</v>
+      </c>
+      <c r="K54" t="s">
+        <v>209</v>
+      </c>
+      <c r="L54" t="s">
+        <v>209</v>
+      </c>
+      <c r="M54" t="s">
+        <v>209</v>
+      </c>
+      <c r="N54" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
@@ -3756,6 +4188,30 @@
       <c r="F55" t="s">
         <v>209</v>
       </c>
+      <c r="G55" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" t="s">
+        <v>209</v>
+      </c>
+      <c r="I55" t="s">
+        <v>209</v>
+      </c>
+      <c r="J55" t="s">
+        <v>209</v>
+      </c>
+      <c r="K55" t="s">
+        <v>209</v>
+      </c>
+      <c r="L55" t="s">
+        <v>209</v>
+      </c>
+      <c r="M55" t="s">
+        <v>209</v>
+      </c>
+      <c r="N55" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
@@ -3864,6 +4320,30 @@
       <c r="F58" t="s">
         <v>209</v>
       </c>
+      <c r="G58" t="s">
+        <v>209</v>
+      </c>
+      <c r="H58" t="s">
+        <v>209</v>
+      </c>
+      <c r="I58" t="s">
+        <v>209</v>
+      </c>
+      <c r="J58" t="s">
+        <v>209</v>
+      </c>
+      <c r="K58" t="s">
+        <v>209</v>
+      </c>
+      <c r="L58" t="s">
+        <v>209</v>
+      </c>
+      <c r="M58" t="s">
+        <v>209</v>
+      </c>
+      <c r="N58" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
@@ -4104,6 +4584,30 @@
       <c r="F64" t="s">
         <v>209</v>
       </c>
+      <c r="G64" t="s">
+        <v>209</v>
+      </c>
+      <c r="H64" t="s">
+        <v>209</v>
+      </c>
+      <c r="I64" t="s">
+        <v>209</v>
+      </c>
+      <c r="J64" t="s">
+        <v>209</v>
+      </c>
+      <c r="K64" t="s">
+        <v>209</v>
+      </c>
+      <c r="L64" t="s">
+        <v>209</v>
+      </c>
+      <c r="M64" t="s">
+        <v>209</v>
+      </c>
+      <c r="N64" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
@@ -4124,6 +4628,30 @@
       <c r="F65" t="s">
         <v>209</v>
       </c>
+      <c r="G65" t="s">
+        <v>209</v>
+      </c>
+      <c r="H65" t="s">
+        <v>209</v>
+      </c>
+      <c r="I65" t="s">
+        <v>209</v>
+      </c>
+      <c r="J65" t="s">
+        <v>209</v>
+      </c>
+      <c r="K65" t="s">
+        <v>209</v>
+      </c>
+      <c r="L65" t="s">
+        <v>209</v>
+      </c>
+      <c r="M65" t="s">
+        <v>209</v>
+      </c>
+      <c r="N65" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4188,6 +4716,30 @@
       <c r="F67" t="s">
         <v>209</v>
       </c>
+      <c r="G67" t="s">
+        <v>209</v>
+      </c>
+      <c r="H67" t="s">
+        <v>209</v>
+      </c>
+      <c r="I67" t="s">
+        <v>209</v>
+      </c>
+      <c r="J67" t="s">
+        <v>209</v>
+      </c>
+      <c r="K67" t="s">
+        <v>209</v>
+      </c>
+      <c r="L67" t="s">
+        <v>209</v>
+      </c>
+      <c r="M67" t="s">
+        <v>209</v>
+      </c>
+      <c r="N67" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
@@ -4384,6 +4936,30 @@
       <c r="F72" t="s">
         <v>209</v>
       </c>
+      <c r="G72" t="s">
+        <v>209</v>
+      </c>
+      <c r="H72" t="s">
+        <v>209</v>
+      </c>
+      <c r="I72" t="s">
+        <v>209</v>
+      </c>
+      <c r="J72" t="s">
+        <v>209</v>
+      </c>
+      <c r="K72" t="s">
+        <v>209</v>
+      </c>
+      <c r="L72" t="s">
+        <v>209</v>
+      </c>
+      <c r="M72" t="s">
+        <v>209</v>
+      </c>
+      <c r="N72" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4492,6 +5068,30 @@
       <c r="F75" t="s">
         <v>209</v>
       </c>
+      <c r="G75" t="s">
+        <v>209</v>
+      </c>
+      <c r="H75" t="s">
+        <v>209</v>
+      </c>
+      <c r="I75" t="s">
+        <v>209</v>
+      </c>
+      <c r="J75" t="s">
+        <v>209</v>
+      </c>
+      <c r="K75" t="s">
+        <v>209</v>
+      </c>
+      <c r="L75" t="s">
+        <v>209</v>
+      </c>
+      <c r="M75" t="s">
+        <v>209</v>
+      </c>
+      <c r="N75" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
@@ -4512,6 +5112,30 @@
       <c r="F76" t="s">
         <v>209</v>
       </c>
+      <c r="G76" t="s">
+        <v>209</v>
+      </c>
+      <c r="H76" t="s">
+        <v>209</v>
+      </c>
+      <c r="I76" t="s">
+        <v>209</v>
+      </c>
+      <c r="J76" t="s">
+        <v>209</v>
+      </c>
+      <c r="K76" t="s">
+        <v>209</v>
+      </c>
+      <c r="L76" t="s">
+        <v>209</v>
+      </c>
+      <c r="M76" t="s">
+        <v>209</v>
+      </c>
+      <c r="N76" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
@@ -4620,6 +5244,30 @@
       <c r="F79" t="s">
         <v>209</v>
       </c>
+      <c r="G79" t="s">
+        <v>209</v>
+      </c>
+      <c r="H79" t="s">
+        <v>209</v>
+      </c>
+      <c r="I79" t="s">
+        <v>209</v>
+      </c>
+      <c r="J79" t="s">
+        <v>209</v>
+      </c>
+      <c r="K79" t="s">
+        <v>209</v>
+      </c>
+      <c r="L79" t="s">
+        <v>209</v>
+      </c>
+      <c r="M79" t="s">
+        <v>209</v>
+      </c>
+      <c r="N79" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
@@ -4684,6 +5332,30 @@
       <c r="F81" t="s">
         <v>209</v>
       </c>
+      <c r="G81" t="s">
+        <v>209</v>
+      </c>
+      <c r="H81" t="s">
+        <v>209</v>
+      </c>
+      <c r="I81" t="s">
+        <v>209</v>
+      </c>
+      <c r="J81" t="s">
+        <v>209</v>
+      </c>
+      <c r="K81" t="s">
+        <v>209</v>
+      </c>
+      <c r="L81" t="s">
+        <v>209</v>
+      </c>
+      <c r="M81" t="s">
+        <v>209</v>
+      </c>
+      <c r="N81" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
@@ -4704,6 +5376,30 @@
       <c r="F82" t="s">
         <v>209</v>
       </c>
+      <c r="G82" t="s">
+        <v>209</v>
+      </c>
+      <c r="H82" t="s">
+        <v>209</v>
+      </c>
+      <c r="I82" t="s">
+        <v>209</v>
+      </c>
+      <c r="J82" t="s">
+        <v>209</v>
+      </c>
+      <c r="K82" t="s">
+        <v>209</v>
+      </c>
+      <c r="L82" t="s">
+        <v>209</v>
+      </c>
+      <c r="M82" t="s">
+        <v>209</v>
+      </c>
+      <c r="N82" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
@@ -4812,6 +5508,30 @@
       <c r="F85" t="s">
         <v>209</v>
       </c>
+      <c r="G85" t="s">
+        <v>209</v>
+      </c>
+      <c r="H85" t="s">
+        <v>209</v>
+      </c>
+      <c r="I85" t="s">
+        <v>209</v>
+      </c>
+      <c r="J85" t="s">
+        <v>209</v>
+      </c>
+      <c r="K85" t="s">
+        <v>209</v>
+      </c>
+      <c r="L85" t="s">
+        <v>209</v>
+      </c>
+      <c r="M85" t="s">
+        <v>209</v>
+      </c>
+      <c r="N85" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
@@ -5052,6 +5772,30 @@
       <c r="F91" t="s">
         <v>209</v>
       </c>
+      <c r="G91" t="s">
+        <v>209</v>
+      </c>
+      <c r="H91" t="s">
+        <v>209</v>
+      </c>
+      <c r="I91" t="s">
+        <v>209</v>
+      </c>
+      <c r="J91" t="s">
+        <v>209</v>
+      </c>
+      <c r="K91" t="s">
+        <v>209</v>
+      </c>
+      <c r="L91" t="s">
+        <v>209</v>
+      </c>
+      <c r="M91" t="s">
+        <v>209</v>
+      </c>
+      <c r="N91" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
@@ -5072,6 +5816,30 @@
       <c r="F92" t="s">
         <v>209</v>
       </c>
+      <c r="G92" t="s">
+        <v>209</v>
+      </c>
+      <c r="H92" t="s">
+        <v>209</v>
+      </c>
+      <c r="I92" t="s">
+        <v>209</v>
+      </c>
+      <c r="J92" t="s">
+        <v>209</v>
+      </c>
+      <c r="K92" t="s">
+        <v>209</v>
+      </c>
+      <c r="L92" t="s">
+        <v>209</v>
+      </c>
+      <c r="M92" t="s">
+        <v>209</v>
+      </c>
+      <c r="N92" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
@@ -5312,6 +6080,30 @@
       <c r="F98" t="s">
         <v>209</v>
       </c>
+      <c r="G98" t="s">
+        <v>209</v>
+      </c>
+      <c r="H98" t="s">
+        <v>209</v>
+      </c>
+      <c r="I98" t="s">
+        <v>209</v>
+      </c>
+      <c r="J98" t="s">
+        <v>209</v>
+      </c>
+      <c r="K98" t="s">
+        <v>209</v>
+      </c>
+      <c r="L98" t="s">
+        <v>209</v>
+      </c>
+      <c r="M98" t="s">
+        <v>209</v>
+      </c>
+      <c r="N98" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
@@ -5376,6 +6168,30 @@
       <c r="F100" t="s">
         <v>209</v>
       </c>
+      <c r="G100" t="s">
+        <v>209</v>
+      </c>
+      <c r="H100" t="s">
+        <v>209</v>
+      </c>
+      <c r="I100" t="s">
+        <v>209</v>
+      </c>
+      <c r="J100" t="s">
+        <v>209</v>
+      </c>
+      <c r="K100" t="s">
+        <v>209</v>
+      </c>
+      <c r="L100" t="s">
+        <v>209</v>
+      </c>
+      <c r="M100" t="s">
+        <v>209</v>
+      </c>
+      <c r="N100" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
@@ -5440,6 +6256,30 @@
       <c r="F102" t="s">
         <v>209</v>
       </c>
+      <c r="G102" t="s">
+        <v>209</v>
+      </c>
+      <c r="H102" t="s">
+        <v>209</v>
+      </c>
+      <c r="I102" t="s">
+        <v>209</v>
+      </c>
+      <c r="J102" t="s">
+        <v>209</v>
+      </c>
+      <c r="K102" t="s">
+        <v>209</v>
+      </c>
+      <c r="L102" t="s">
+        <v>209</v>
+      </c>
+      <c r="M102" t="s">
+        <v>209</v>
+      </c>
+      <c r="N102" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="1">
@@ -5548,6 +6388,30 @@
       <c r="F105" t="s">
         <v>209</v>
       </c>
+      <c r="G105" t="s">
+        <v>209</v>
+      </c>
+      <c r="H105" t="s">
+        <v>209</v>
+      </c>
+      <c r="I105" t="s">
+        <v>209</v>
+      </c>
+      <c r="J105" t="s">
+        <v>209</v>
+      </c>
+      <c r="K105" t="s">
+        <v>209</v>
+      </c>
+      <c r="L105" t="s">
+        <v>209</v>
+      </c>
+      <c r="M105" t="s">
+        <v>209</v>
+      </c>
+      <c r="N105" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
@@ -5612,6 +6476,30 @@
       <c r="F107" t="s">
         <v>209</v>
       </c>
+      <c r="G107" t="s">
+        <v>209</v>
+      </c>
+      <c r="H107" t="s">
+        <v>209</v>
+      </c>
+      <c r="I107" t="s">
+        <v>209</v>
+      </c>
+      <c r="J107" t="s">
+        <v>209</v>
+      </c>
+      <c r="K107" t="s">
+        <v>209</v>
+      </c>
+      <c r="L107" t="s">
+        <v>209</v>
+      </c>
+      <c r="M107" t="s">
+        <v>209</v>
+      </c>
+      <c r="N107" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
@@ -5676,6 +6564,30 @@
       <c r="F109" t="s">
         <v>209</v>
       </c>
+      <c r="G109" t="s">
+        <v>209</v>
+      </c>
+      <c r="H109" t="s">
+        <v>209</v>
+      </c>
+      <c r="I109" t="s">
+        <v>209</v>
+      </c>
+      <c r="J109" t="s">
+        <v>209</v>
+      </c>
+      <c r="K109" t="s">
+        <v>209</v>
+      </c>
+      <c r="L109" t="s">
+        <v>209</v>
+      </c>
+      <c r="M109" t="s">
+        <v>209</v>
+      </c>
+      <c r="N109" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
@@ -5696,6 +6608,30 @@
       <c r="F110" t="s">
         <v>209</v>
       </c>
+      <c r="G110" t="s">
+        <v>209</v>
+      </c>
+      <c r="H110" t="s">
+        <v>209</v>
+      </c>
+      <c r="I110" t="s">
+        <v>209</v>
+      </c>
+      <c r="J110" t="s">
+        <v>209</v>
+      </c>
+      <c r="K110" t="s">
+        <v>209</v>
+      </c>
+      <c r="L110" t="s">
+        <v>209</v>
+      </c>
+      <c r="M110" t="s">
+        <v>209</v>
+      </c>
+      <c r="N110" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5716,6 +6652,30 @@
       <c r="F111" t="s">
         <v>209</v>
       </c>
+      <c r="G111" t="s">
+        <v>209</v>
+      </c>
+      <c r="H111" t="s">
+        <v>209</v>
+      </c>
+      <c r="I111" t="s">
+        <v>209</v>
+      </c>
+      <c r="J111" t="s">
+        <v>209</v>
+      </c>
+      <c r="K111" t="s">
+        <v>209</v>
+      </c>
+      <c r="L111" t="s">
+        <v>209</v>
+      </c>
+      <c r="M111" t="s">
+        <v>209</v>
+      </c>
+      <c r="N111" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
@@ -5868,6 +6828,30 @@
       <c r="F115" t="s">
         <v>209</v>
       </c>
+      <c r="G115" t="s">
+        <v>209</v>
+      </c>
+      <c r="H115" t="s">
+        <v>209</v>
+      </c>
+      <c r="I115" t="s">
+        <v>209</v>
+      </c>
+      <c r="J115" t="s">
+        <v>209</v>
+      </c>
+      <c r="K115" t="s">
+        <v>209</v>
+      </c>
+      <c r="L115" t="s">
+        <v>209</v>
+      </c>
+      <c r="M115" t="s">
+        <v>209</v>
+      </c>
+      <c r="N115" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
@@ -6020,6 +7004,30 @@
       <c r="F119" t="s">
         <v>209</v>
       </c>
+      <c r="G119" t="s">
+        <v>209</v>
+      </c>
+      <c r="H119" t="s">
+        <v>209</v>
+      </c>
+      <c r="I119" t="s">
+        <v>209</v>
+      </c>
+      <c r="J119" t="s">
+        <v>209</v>
+      </c>
+      <c r="K119" t="s">
+        <v>209</v>
+      </c>
+      <c r="L119" t="s">
+        <v>209</v>
+      </c>
+      <c r="M119" t="s">
+        <v>209</v>
+      </c>
+      <c r="N119" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
@@ -6040,6 +7048,30 @@
       <c r="F120" t="s">
         <v>209</v>
       </c>
+      <c r="G120" t="s">
+        <v>209</v>
+      </c>
+      <c r="H120" t="s">
+        <v>209</v>
+      </c>
+      <c r="I120" t="s">
+        <v>209</v>
+      </c>
+      <c r="J120" t="s">
+        <v>209</v>
+      </c>
+      <c r="K120" t="s">
+        <v>209</v>
+      </c>
+      <c r="L120" t="s">
+        <v>209</v>
+      </c>
+      <c r="M120" t="s">
+        <v>209</v>
+      </c>
+      <c r="N120" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
@@ -6148,6 +7180,30 @@
       <c r="F123" t="s">
         <v>209</v>
       </c>
+      <c r="G123" t="s">
+        <v>209</v>
+      </c>
+      <c r="H123" t="s">
+        <v>209</v>
+      </c>
+      <c r="I123" t="s">
+        <v>209</v>
+      </c>
+      <c r="J123" t="s">
+        <v>209</v>
+      </c>
+      <c r="K123" t="s">
+        <v>209</v>
+      </c>
+      <c r="L123" t="s">
+        <v>209</v>
+      </c>
+      <c r="M123" t="s">
+        <v>209</v>
+      </c>
+      <c r="N123" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
@@ -6388,6 +7444,30 @@
       <c r="F129" t="s">
         <v>209</v>
       </c>
+      <c r="G129" t="s">
+        <v>209</v>
+      </c>
+      <c r="H129" t="s">
+        <v>209</v>
+      </c>
+      <c r="I129" t="s">
+        <v>209</v>
+      </c>
+      <c r="J129" t="s">
+        <v>209</v>
+      </c>
+      <c r="K129" t="s">
+        <v>209</v>
+      </c>
+      <c r="L129" t="s">
+        <v>209</v>
+      </c>
+      <c r="M129" t="s">
+        <v>209</v>
+      </c>
+      <c r="N129" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
@@ -6672,6 +7752,30 @@
       <c r="F136" t="s">
         <v>209</v>
       </c>
+      <c r="G136" t="s">
+        <v>209</v>
+      </c>
+      <c r="H136" t="s">
+        <v>209</v>
+      </c>
+      <c r="I136" t="s">
+        <v>209</v>
+      </c>
+      <c r="J136" t="s">
+        <v>209</v>
+      </c>
+      <c r="K136" t="s">
+        <v>209</v>
+      </c>
+      <c r="L136" t="s">
+        <v>209</v>
+      </c>
+      <c r="M136" t="s">
+        <v>209</v>
+      </c>
+      <c r="N136" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="1">
@@ -6736,6 +7840,30 @@
       <c r="F138" t="s">
         <v>209</v>
       </c>
+      <c r="G138" t="s">
+        <v>209</v>
+      </c>
+      <c r="H138" t="s">
+        <v>209</v>
+      </c>
+      <c r="I138" t="s">
+        <v>209</v>
+      </c>
+      <c r="J138" t="s">
+        <v>209</v>
+      </c>
+      <c r="K138" t="s">
+        <v>209</v>
+      </c>
+      <c r="L138" t="s">
+        <v>209</v>
+      </c>
+      <c r="M138" t="s">
+        <v>209</v>
+      </c>
+      <c r="N138" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
@@ -6756,6 +7884,30 @@
       <c r="F139" t="s">
         <v>209</v>
       </c>
+      <c r="G139" t="s">
+        <v>209</v>
+      </c>
+      <c r="H139" t="s">
+        <v>209</v>
+      </c>
+      <c r="I139" t="s">
+        <v>209</v>
+      </c>
+      <c r="J139" t="s">
+        <v>209</v>
+      </c>
+      <c r="K139" t="s">
+        <v>209</v>
+      </c>
+      <c r="L139" t="s">
+        <v>209</v>
+      </c>
+      <c r="M139" t="s">
+        <v>209</v>
+      </c>
+      <c r="N139" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
@@ -6776,6 +7928,30 @@
       <c r="F140" t="s">
         <v>209</v>
       </c>
+      <c r="G140" t="s">
+        <v>209</v>
+      </c>
+      <c r="H140" t="s">
+        <v>209</v>
+      </c>
+      <c r="I140" t="s">
+        <v>209</v>
+      </c>
+      <c r="J140" t="s">
+        <v>209</v>
+      </c>
+      <c r="K140" t="s">
+        <v>209</v>
+      </c>
+      <c r="L140" t="s">
+        <v>209</v>
+      </c>
+      <c r="M140" t="s">
+        <v>209</v>
+      </c>
+      <c r="N140" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
@@ -6928,6 +8104,30 @@
       <c r="F144" t="s">
         <v>209</v>
       </c>
+      <c r="G144" t="s">
+        <v>209</v>
+      </c>
+      <c r="H144" t="s">
+        <v>209</v>
+      </c>
+      <c r="I144" t="s">
+        <v>209</v>
+      </c>
+      <c r="J144" t="s">
+        <v>209</v>
+      </c>
+      <c r="K144" t="s">
+        <v>209</v>
+      </c>
+      <c r="L144" t="s">
+        <v>209</v>
+      </c>
+      <c r="M144" t="s">
+        <v>209</v>
+      </c>
+      <c r="N144" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -7168,6 +8368,30 @@
       <c r="F150" t="s">
         <v>209</v>
       </c>
+      <c r="G150" t="s">
+        <v>209</v>
+      </c>
+      <c r="H150" t="s">
+        <v>209</v>
+      </c>
+      <c r="I150" t="s">
+        <v>209</v>
+      </c>
+      <c r="J150" t="s">
+        <v>209</v>
+      </c>
+      <c r="K150" t="s">
+        <v>209</v>
+      </c>
+      <c r="L150" t="s">
+        <v>209</v>
+      </c>
+      <c r="M150" t="s">
+        <v>209</v>
+      </c>
+      <c r="N150" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
@@ -7452,6 +8676,30 @@
       <c r="F157" t="s">
         <v>209</v>
       </c>
+      <c r="G157" t="s">
+        <v>209</v>
+      </c>
+      <c r="H157" t="s">
+        <v>209</v>
+      </c>
+      <c r="I157" t="s">
+        <v>209</v>
+      </c>
+      <c r="J157" t="s">
+        <v>209</v>
+      </c>
+      <c r="K157" t="s">
+        <v>209</v>
+      </c>
+      <c r="L157" t="s">
+        <v>209</v>
+      </c>
+      <c r="M157" t="s">
+        <v>209</v>
+      </c>
+      <c r="N157" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
@@ -7516,6 +8764,30 @@
       <c r="F159" t="s">
         <v>209</v>
       </c>
+      <c r="G159" t="s">
+        <v>209</v>
+      </c>
+      <c r="H159" t="s">
+        <v>209</v>
+      </c>
+      <c r="I159" t="s">
+        <v>209</v>
+      </c>
+      <c r="J159" t="s">
+        <v>209</v>
+      </c>
+      <c r="K159" t="s">
+        <v>209</v>
+      </c>
+      <c r="L159" t="s">
+        <v>209</v>
+      </c>
+      <c r="M159" t="s">
+        <v>209</v>
+      </c>
+      <c r="N159" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7580,6 +8852,30 @@
       <c r="F161" t="s">
         <v>209</v>
       </c>
+      <c r="G161" t="s">
+        <v>209</v>
+      </c>
+      <c r="H161" t="s">
+        <v>209</v>
+      </c>
+      <c r="I161" t="s">
+        <v>209</v>
+      </c>
+      <c r="J161" t="s">
+        <v>209</v>
+      </c>
+      <c r="K161" t="s">
+        <v>209</v>
+      </c>
+      <c r="L161" t="s">
+        <v>209</v>
+      </c>
+      <c r="M161" t="s">
+        <v>209</v>
+      </c>
+      <c r="N161" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
@@ -7600,6 +8896,30 @@
       <c r="F162" t="s">
         <v>209</v>
       </c>
+      <c r="G162" t="s">
+        <v>209</v>
+      </c>
+      <c r="H162" t="s">
+        <v>209</v>
+      </c>
+      <c r="I162" t="s">
+        <v>209</v>
+      </c>
+      <c r="J162" t="s">
+        <v>209</v>
+      </c>
+      <c r="K162" t="s">
+        <v>209</v>
+      </c>
+      <c r="L162" t="s">
+        <v>209</v>
+      </c>
+      <c r="M162" t="s">
+        <v>209</v>
+      </c>
+      <c r="N162" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
@@ -7796,6 +9116,30 @@
       <c r="F167" t="s">
         <v>209</v>
       </c>
+      <c r="G167" t="s">
+        <v>209</v>
+      </c>
+      <c r="H167" t="s">
+        <v>209</v>
+      </c>
+      <c r="I167" t="s">
+        <v>209</v>
+      </c>
+      <c r="J167" t="s">
+        <v>209</v>
+      </c>
+      <c r="K167" t="s">
+        <v>209</v>
+      </c>
+      <c r="L167" t="s">
+        <v>209</v>
+      </c>
+      <c r="M167" t="s">
+        <v>209</v>
+      </c>
+      <c r="N167" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
@@ -7904,6 +9248,30 @@
       <c r="F170" t="s">
         <v>209</v>
       </c>
+      <c r="G170" t="s">
+        <v>209</v>
+      </c>
+      <c r="H170" t="s">
+        <v>209</v>
+      </c>
+      <c r="I170" t="s">
+        <v>209</v>
+      </c>
+      <c r="J170" t="s">
+        <v>209</v>
+      </c>
+      <c r="K170" t="s">
+        <v>209</v>
+      </c>
+      <c r="L170" t="s">
+        <v>209</v>
+      </c>
+      <c r="M170" t="s">
+        <v>209</v>
+      </c>
+      <c r="N170" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -8188,6 +9556,30 @@
       <c r="F177" t="s">
         <v>209</v>
       </c>
+      <c r="G177" t="s">
+        <v>209</v>
+      </c>
+      <c r="H177" t="s">
+        <v>209</v>
+      </c>
+      <c r="I177" t="s">
+        <v>209</v>
+      </c>
+      <c r="J177" t="s">
+        <v>209</v>
+      </c>
+      <c r="K177" t="s">
+        <v>209</v>
+      </c>
+      <c r="L177" t="s">
+        <v>209</v>
+      </c>
+      <c r="M177" t="s">
+        <v>209</v>
+      </c>
+      <c r="N177" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
@@ -8208,6 +9600,30 @@
       <c r="F178" t="s">
         <v>209</v>
       </c>
+      <c r="G178" t="s">
+        <v>209</v>
+      </c>
+      <c r="H178" t="s">
+        <v>209</v>
+      </c>
+      <c r="I178" t="s">
+        <v>209</v>
+      </c>
+      <c r="J178" t="s">
+        <v>209</v>
+      </c>
+      <c r="K178" t="s">
+        <v>209</v>
+      </c>
+      <c r="L178" t="s">
+        <v>209</v>
+      </c>
+      <c r="M178" t="s">
+        <v>209</v>
+      </c>
+      <c r="N178" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
@@ -8228,6 +9644,30 @@
       <c r="F179" t="s">
         <v>209</v>
       </c>
+      <c r="G179" t="s">
+        <v>209</v>
+      </c>
+      <c r="H179" t="s">
+        <v>209</v>
+      </c>
+      <c r="I179" t="s">
+        <v>209</v>
+      </c>
+      <c r="J179" t="s">
+        <v>209</v>
+      </c>
+      <c r="K179" t="s">
+        <v>209</v>
+      </c>
+      <c r="L179" t="s">
+        <v>209</v>
+      </c>
+      <c r="M179" t="s">
+        <v>209</v>
+      </c>
+      <c r="N179" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
@@ -8292,6 +9732,30 @@
       <c r="F181" t="s">
         <v>209</v>
       </c>
+      <c r="G181" t="s">
+        <v>209</v>
+      </c>
+      <c r="H181" t="s">
+        <v>209</v>
+      </c>
+      <c r="I181" t="s">
+        <v>209</v>
+      </c>
+      <c r="J181" t="s">
+        <v>209</v>
+      </c>
+      <c r="K181" t="s">
+        <v>209</v>
+      </c>
+      <c r="L181" t="s">
+        <v>209</v>
+      </c>
+      <c r="M181" t="s">
+        <v>209</v>
+      </c>
+      <c r="N181" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1">
@@ -8488,6 +9952,30 @@
       <c r="F186" t="s">
         <v>209</v>
       </c>
+      <c r="G186" t="s">
+        <v>209</v>
+      </c>
+      <c r="H186" t="s">
+        <v>209</v>
+      </c>
+      <c r="I186" t="s">
+        <v>209</v>
+      </c>
+      <c r="J186" t="s">
+        <v>209</v>
+      </c>
+      <c r="K186" t="s">
+        <v>209</v>
+      </c>
+      <c r="L186" t="s">
+        <v>209</v>
+      </c>
+      <c r="M186" t="s">
+        <v>209</v>
+      </c>
+      <c r="N186" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
@@ -8552,6 +10040,30 @@
       <c r="F188" t="s">
         <v>209</v>
       </c>
+      <c r="G188" t="s">
+        <v>209</v>
+      </c>
+      <c r="H188" t="s">
+        <v>209</v>
+      </c>
+      <c r="I188" t="s">
+        <v>209</v>
+      </c>
+      <c r="J188" t="s">
+        <v>209</v>
+      </c>
+      <c r="K188" t="s">
+        <v>209</v>
+      </c>
+      <c r="L188" t="s">
+        <v>209</v>
+      </c>
+      <c r="M188" t="s">
+        <v>209</v>
+      </c>
+      <c r="N188" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
@@ -8729,7 +10241,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:14">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8746,6 +10258,30 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
+        <v>209</v>
+      </c>
+      <c r="G193" t="s">
+        <v>209</v>
+      </c>
+      <c r="H193" t="s">
+        <v>209</v>
+      </c>
+      <c r="I193" t="s">
+        <v>209</v>
+      </c>
+      <c r="J193" t="s">
+        <v>209</v>
+      </c>
+      <c r="K193" t="s">
+        <v>209</v>
+      </c>
+      <c r="L193" t="s">
+        <v>209</v>
+      </c>
+      <c r="M193" t="s">
+        <v>209</v>
+      </c>
+      <c r="N193" t="s">
         <v>209</v>
       </c>
     </row>

--- a/sequences/08_retrieval_2.xlsx
+++ b/sequences/08_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>stellen</t>
+  </si>
+  <si>
+    <t>ahnen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>kratzen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>scheiden</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>leihen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>beten</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>prügeln</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>fehlen</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>klingeln</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>hindern</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
     <t>duschen</t>
   </si>
   <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>wahren</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
     <t>pflegen</t>
   </si>
   <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
     <t>tauschen</t>
   </si>
   <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>nutzen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>schlagen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>sichern</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>stinken</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
     <t>zielen</t>
   </si>
   <si>
-    <t>freuen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
-    <t>schützen</t>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>flehen</t>
   </si>
   <si>
     <t>saufen</t>
   </si>
   <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>schämen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>klingeln</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>brauen</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>lohnen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>baden</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>lauten</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>zeichnen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>filmen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>hängen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>fällen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>pinkeln</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>bellen</t>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>pissen</t>
   </si>
   <si>
     <t>face/face022.jpg</t>
